--- a/classification/droptc/modern-bert/freeze/52680723/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.7739414572715759</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.3892816305160522</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.5122612118721008</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.5378512740135193</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.539965033531189</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7025052309036255</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.7834061980247498</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.4324766099452972</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.7420260906219482</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.3124528229236603</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.8266337513923645</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.8556470274925232</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.7197732329368591</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3752165734767914</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.527962327003479</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.7024145126342773</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.6310855150222778</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.5378512740135193</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4746933579444885</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.748996913433075</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.7335980534553528</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.7177478671073914</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.5872123241424561</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.6032499670982361</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3346472382545471</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.6576357483863831</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.6860005259513855</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.5842345356941223</v>
       </c>
     </row>
     <row r="31">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.623237669467926</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.387337327003479</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.3136287331581116</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5430191159248352</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.6260930895805359</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.7928295135498047</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.2768023312091827</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.8596347570419312</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.8847347497940063</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.2695731818675995</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.7359403371810913</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.6109712719917297</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.8456889986991882</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.7273421287536621</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.8327842950820923</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.5285325646400452</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.8171634078025818</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.7303816080093384</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.893157422542572</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.5650113224983215</v>
       </c>
     </row>
     <row r="52">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.4121819734573364</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.3912897109985352</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.6252987384796143</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.4091377258300781</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.6789669394493103</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.4862183630466461</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.3425010442733765</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.3304745852947235</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.6489951610565186</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.8375011086463928</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.7616462707519531</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.5977474451065063</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.7499411106109619</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.7352163195610046</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5806841254234314</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8519948720932007</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.5786149501800537</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.6085548996925354</v>
       </c>
     </row>
     <row r="70">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="E70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.5571413636207581</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.611528217792511</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.4317247569561005</v>
       </c>
     </row>
     <row r="73">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.5384575724601746</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.7505590319633484</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.7626501321792603</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.6296141147613525</v>
       </c>
     </row>
     <row r="77">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.5161855816841125</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.5983482003211975</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.6041678190231323</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.387337327003479</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.584164559841156</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.387337327003479</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.5428012609481812</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.682929515838623</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.295011579990387</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.5267266631126404</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.9310367703437805</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.4298470616340637</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.6624776124954224</v>
       </c>
     </row>
     <row r="91">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.2727542817592621</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.3147367537021637</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.4106675684452057</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.8666659593582153</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.5200038552284241</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.4518632888793945</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.6315922141075134</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.4324766099452972</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.2681601345539093</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.2727542817592621</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.6082080006599426</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.7359719276428223</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.5429422855377197</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.7957578301429749</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.620395302772522</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.804398775100708</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3455,10 +3455,10 @@
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.7277981638908386</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.4910025596618652</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.8539614081382751</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.9433611631393433</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.3300082087516785</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.295011579990387</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.7347055077552795</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.295011579990387</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.7717399001121521</v>
       </c>
     </row>
     <row r="119">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.7743528485298157</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="121">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="E121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.5599707961082458</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.7240405678749084</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.8128331303596497</v>
       </c>
     </row>
     <row r="124">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3903,10 +3903,10 @@
         </is>
       </c>
       <c r="E124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.7526897192001343</v>
       </c>
     </row>
     <row r="125">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.3043199181556702</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.8550311326980591</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.6429230570793152</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.6170664429664612</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.4868608117103577</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.5033703446388245</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.8814180493354797</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.6041678190231323</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.4168035686016083</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.828112781047821</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.3566557466983795</v>
       </c>
     </row>
     <row r="136">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.7657994031906128</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.7310455441474915</v>
       </c>
     </row>
     <row r="138">
@@ -4291,14 +4291,14 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.4420933425426483</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.5757390856742859</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.6023475527763367</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.6142387986183167</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.2715873718261719</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.9349117875099182</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.576410710811615</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.4246053993701935</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.3577193319797516</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.6463126540184021</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.5872123241424561</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4527837038040161</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.7353390455245972</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.6695565581321716</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.4324766099452972</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.603211522102356</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.7575262784957886</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.4698938429355621</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.7574892044067383</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.7371014952659607</v>
       </c>
     </row>
     <row r="158">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="E158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.4162766933441162</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.5866604447364807</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.4904905557632446</v>
       </c>
     </row>
     <row r="161">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.4246053993701935</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.631835401058197</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.5753288269042969</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.6995704174041748</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.6309308409690857</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.7751219868659973</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.8772761225700378</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.4556774497032166</v>
       </c>
     </row>
     <row r="169">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5163,10 +5163,10 @@
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.3043199181556702</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.5384950041770935</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.6476780772209167</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.7234326004981995</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.7326263189315796</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.7859300374984741</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.7438830137252808</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.4461100995540619</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.6979801654815674</v>
       </c>
     </row>
     <row r="178">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5415,10 +5415,10 @@
         </is>
       </c>
       <c r="E178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.3912897109985352</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.553835391998291</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.5506389737129211</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.7660156488418579</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.8772761225700378</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.7284696102142334</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.8300065994262695</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.8005702495574951</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.2378669381141663</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.863680899143219</v>
       </c>
     </row>
     <row r="188">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5695,10 +5695,10 @@
         </is>
       </c>
       <c r="E188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.4995402693748474</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.5170186758041382</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.5933895707130432</v>
       </c>
     </row>
     <row r="191">
@@ -5775,14 +5775,14 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.3621565401554108</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.4137534499168396</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.5806841254234314</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.7178627848625183</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.3632146120071411</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.2906618118286133</v>
       </c>
     </row>
     <row r="197">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5947,10 +5947,10 @@
         </is>
       </c>
       <c r="E197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.7917308211326599</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.5582233071327209</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.7469411492347717</v>
       </c>
     </row>
     <row r="200">
@@ -6022,7 +6022,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.3226771056652069</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.5150728225708008</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.6117743253707886</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.8011276125907898</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.61952143907547</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.7870283722877502</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.3309069275856018</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.8900401592254639</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.7384947538375854</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.6312428116798401</v>
       </c>
     </row>
   </sheetData>
